--- a/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0E41A-5857-2D43-832D-0D214EA52140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562A100-ED81-FD4D-9995-EC697E9E4901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2340" windowWidth="29500" windowHeight="15940" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="3600" yWindow="6200" windowWidth="29500" windowHeight="15940" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="82">
   <si>
     <t>libraryDate</t>
   </si>
@@ -192,13 +192,100 @@
   </si>
   <si>
     <t>08.29.19</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>08.22.19</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-10_GTAC_10_SIC_Index2_09_GGCAGCG_TGTGAGGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-11_GTAC_11_SIC_Index2_09_CCATCAT_TGTGAGGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-15_GTAC_15_SIC_Index2_09_GGTCCTC_TGTGAGGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-25_GTAC_25_SIC_Index2_09_CGTCGCT_TGTGAGGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-3_GTAC_3_SIC_Index2_09_ATGACAG_TGTGAGGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-5_GTAC_5_SIC_Index2_09_ATCGAGC_TGTGAGGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-9_GTAC_9_SIC_Index2_09_CCGATTA_TGTGAGGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-12_GTAC_12_SIC_Index2_09_TAACAAG_TGTGAGGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-13_GTAC_13_SIC_Index2_09_GAGGCGT_TGTGAGGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-14_GTAC_14_SIC_Index2_09_TTTAACT_TGTGAGGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-16_GTAC_16_SIC_Index2_09_CGGTGGC_TGTGAGGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-17_GTAC_17_SIC_Index2_09_ACTGTCG_TGTGAGGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-18_GTAC_18_SIC_Index2_09_GTATTTG_TGTGAGGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-19_GTAC_19_SIC_Index2_09_GAGTACG_TGTGAGGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-1_GTAC_1_SIC_Index2_09_TGAGGTT_TGTGAGGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-20_GTAC_20_SIC_Index2_09_ACAGATA_TGTGAGGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-21_GTAC_21_SIC_Index2_09_CTCAATG_TGTGAGGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-22_GTAC_22_SIC_Index2_09_AAATGCA_TGTGAGGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-23_GTAC_23_SIC_Index2_09_ACGCGGG_TGTGAGGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-24_GTAC_24_SIC_Index2_09_GGAGTCC_TGTGAGGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-26_GTAC_26_SIC_Index2_09_TCAACTG_TGTGAGGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-2_GTAC_2_SIC_Index2_09_GCTTAGA_TGTGAGGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-4_GTAC_4_SIC_Index2_09_CACCTCC_TGTGAGGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-6_GTAC_6_SIC_Index2_09_TACTCTA_TGTGAGGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-7_GTAC_7_SIC_Index2_09_AGACTGA_TGTGAGGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-8_GTAC_8_SIC_Index2_09_CTTGGAA_TGTGAGGT_S9_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +328,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +374,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="Q41" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +753,9 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -675,10 +775,18 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2004</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -695,7 +803,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -715,16 +825,23 @@
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3">
+        <v>3.9</v>
+      </c>
+      <c r="K3" s="10">
+        <v>4241983</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="11"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -735,7 +852,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,16 +874,23 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="I4">
+        <v>4.2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="K4" s="10">
+        <v>58898699</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="11"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -775,7 +901,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,16 +923,23 @@
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="I5">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="J5">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>4506700</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="11"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -815,7 +950,9 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -835,16 +972,23 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="I6">
+        <v>1.43</v>
+      </c>
+      <c r="J6" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="K6" s="10">
+        <v>14768721</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="P6" s="11"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -855,7 +999,9 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -875,16 +1021,23 @@
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="10">
+        <v>3652980</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="P7" s="11"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -895,7 +1048,9 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,16 +1070,23 @@
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>14310</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="P8" s="11"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -935,7 +1097,9 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -955,16 +1119,23 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>14888</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="11"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -975,7 +1146,9 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -995,16 +1168,24 @@
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="I10">
+        <v>7.15</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10" s="10">
+        <v>5326406</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1015,7 +1196,9 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1035,16 +1218,24 @@
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J11" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="K11" s="10">
+        <v>7093565</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1055,7 +1246,9 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,16 +1268,24 @@
       <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="I12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J12" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>6365330</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1095,7 +1296,9 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,16 +1318,24 @@
       <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="I13">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4869326</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1135,7 +1346,9 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,16 +1368,24 @@
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="I14">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J14">
+        <v>11.5</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4237164</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1175,7 +1396,9 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1195,16 +1418,24 @@
       <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="I15">
+        <v>7.15</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="10">
+        <v>3172</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1215,7 +1446,9 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,16 +1468,24 @@
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4409</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1255,7 +1496,9 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,16 +1518,24 @@
       <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="I17">
+        <v>0.46</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="10">
+        <v>9921685</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1295,7 +1546,9 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,16 +1568,24 @@
       <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="I18">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J18">
+        <v>4.3</v>
+      </c>
+      <c r="K18" s="10">
+        <v>4203647</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1335,7 +1596,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,16 +1618,24 @@
       <c r="H19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="I19">
+        <v>0.308</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" s="10">
+        <v>11870</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1375,7 +1646,9 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,16 +1668,24 @@
       <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="I20">
+        <v>0.216</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" s="10">
+        <v>3007</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1415,7 +1696,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1435,16 +1718,24 @@
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="I21">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="10">
+        <v>15339</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1455,7 +1746,9 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,16 +1768,24 @@
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="I22">
+        <v>0.27</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10">
+        <v>11447</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1495,7 +1796,9 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1515,16 +1818,24 @@
       <c r="H23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="I23">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="10">
+        <v>11126</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1535,7 +1846,9 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1555,16 +1868,24 @@
       <c r="H24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="I24">
+        <v>0.24</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10">
+        <v>3290</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1575,7 +1896,9 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,16 +1918,24 @@
       <c r="H25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="I25">
+        <v>0.155</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" s="10">
+        <v>7500</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1615,7 +1946,9 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1635,16 +1968,24 @@
       <c r="H26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="I26">
+        <v>33.4</v>
+      </c>
+      <c r="J26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K26" s="10">
+        <v>6738052</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1677,16 +2018,24 @@
       <c r="H27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="I27">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J27">
+        <v>6.1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>5031505</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1734,9 +2083,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1780,6 +2129,9 @@
       <c r="L29" t="s">
         <v>18</v>
       </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1815,6 +2167,9 @@
       <c r="L30" t="s">
         <v>19</v>
       </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1850,6 +2205,9 @@
       <c r="L31" t="s">
         <v>20</v>
       </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1885,8 +2243,11 @@
       <c r="L32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1920,8 +2281,11 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1955,8 +2319,11 @@
       <c r="L34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1990,8 +2357,11 @@
       <c r="L35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2025,8 +2395,11 @@
       <c r="L36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2060,8 +2433,11 @@
       <c r="L37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2095,8 +2471,11 @@
       <c r="L38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2130,8 +2509,11 @@
       <c r="L39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2165,8 +2547,11 @@
       <c r="L40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2200,8 +2585,11 @@
       <c r="L41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2235,8 +2623,11 @@
       <c r="L42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2270,8 +2661,11 @@
       <c r="L43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2305,8 +2699,11 @@
       <c r="L44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2340,8 +2737,10 @@
       <c r="L45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P45" s="11"/>
+      <c r="R45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2375,8 +2774,10 @@
       <c r="L46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P46" s="11"/>
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2410,8 +2811,10 @@
       <c r="L47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P47" s="11"/>
+      <c r="R47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2445,8 +2848,10 @@
       <c r="L48" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P48" s="11"/>
+      <c r="R48" s="12"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2480,8 +2885,10 @@
       <c r="L49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P49" s="11"/>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2515,8 +2922,10 @@
       <c r="L50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P50" s="11"/>
+      <c r="R50" s="12"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2550,8 +2959,10 @@
       <c r="L51" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P51" s="11"/>
+      <c r="R51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2585,8 +2996,10 @@
       <c r="L52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P52" s="11"/>
+      <c r="R52" s="12"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2620,8 +3033,10 @@
       <c r="L53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P53" s="11"/>
+      <c r="R53" s="12"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2655,8 +3070,10 @@
       <c r="L54" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P54" s="11"/>
+      <c r="R54" s="12"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2690,8 +3107,10 @@
       <c r="L55" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P55" s="11"/>
+      <c r="R55" s="12"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2725,8 +3144,10 @@
       <c r="L56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P56" s="11"/>
+      <c r="R56" s="12"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2760,8 +3181,10 @@
       <c r="L57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P57" s="11"/>
+      <c r="R57" s="12"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2795,8 +3218,10 @@
       <c r="L58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P58" s="11"/>
+      <c r="R58" s="12"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2830,8 +3255,10 @@
       <c r="L59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P59" s="11"/>
+      <c r="R59" s="12"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2865,8 +3292,10 @@
       <c r="L60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P60" s="11"/>
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2900,8 +3329,10 @@
       <c r="L61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P61" s="11"/>
+      <c r="R61" s="12"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2935,8 +3366,10 @@
       <c r="L62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P62" s="11"/>
+      <c r="R62" s="12"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2970,6 +3403,33 @@
       <c r="L63" t="s">
         <v>52</v>
       </c>
+      <c r="P63" s="11"/>
+      <c r="R63" s="12"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="12"/>
+    </row>
+    <row r="65" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="12"/>
+    </row>
+    <row r="66" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="12"/>
+    </row>
+    <row r="67" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="12"/>
+    </row>
+    <row r="68" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7558C48-2F47-A44B-8C3F-57B386361EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,283 +27,266 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="82">
   <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.22.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighOutput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullRNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-1_GTAC_1_SIC_Index2_09_TGAGGTT_TGTGAGGT_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-2_GTAC_2_SIC_Index2_09_GCTTAGA_TGTGAGGT_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-3_GTAC_3_SIC_Index2_09_ATGACAG_TGTGAGGT_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-4_GTAC_4_SIC_Index2_09_CACCTCC_TGTGAGGT_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-5_GTAC_5_SIC_Index2_09_ATCGAGC_TGTGAGGT_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-6_GTAC_6_SIC_Index2_09_TACTCTA_TGTGAGGT_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-7_GTAC_7_SIC_Index2_09_AGACTGA_TGTGAGGT_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-8_GTAC_8_SIC_Index2_09_CTTGGAA_TGTGAGGT_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-9_GTAC_9_SIC_Index2_09_CCGATTA_TGTGAGGT_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-10_GTAC_10_SIC_Index2_09_GGCAGCG_TGTGAGGT_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-11_GTAC_11_SIC_Index2_09_CCATCAT_TGTGAGGT_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-12_GTAC_12_SIC_Index2_09_TAACAAG_TGTGAGGT_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-13_GTAC_13_SIC_Index2_09_GAGGCGT_TGTGAGGT_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-14_GTAC_14_SIC_Index2_09_TTTAACT_TGTGAGGT_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-15_GTAC_15_SIC_Index2_09_GGTCCTC_TGTGAGGT_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-16_GTAC_16_SIC_Index2_09_CGGTGGC_TGTGAGGT_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-17_GTAC_17_SIC_Index2_09_ACTGTCG_TGTGAGGT_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-18_GTAC_18_SIC_Index2_09_GTATTTG_TGTGAGGT_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-19_GTAC_19_SIC_Index2_09_GAGTACG_TGTGAGGT_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-20_GTAC_20_SIC_Index2_09_ACAGATA_TGTGAGGT_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-21_GTAC_21_SIC_Index2_09_CTCAATG_TGTGAGGT_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-22_GTAC_22_SIC_Index2_09_AAATGCA_TGTGAGGT_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-23_GTAC_23_SIC_Index2_09_ACGCGGG_TGTGAGGT_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-24_GTAC_24_SIC_Index2_09_GGAGTCC_TGTGAGGT_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_3d-25_GTAC_25_SIC_Index2_09_CGTCGCT_TGTGAGGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.29.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_3d-26_GTAC_26_SIC_Index2_09_TCAACTG_TGTGAGGT_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.29.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-1_GTAC_27_SIC_Index2_09_TGTTTGT_TGTGAGGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-2_GTAC_28_SIC_Index2_09_TACATGG_TGTGAGGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-3_GTAC_29_SIC_Index2_09_GTTCTCA_TGTGAGGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-4_GTAC_30_SIC_Index2_09_CTGGTGG_TGTGAGGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-5_GTAC_31_SIC_Index2_09_TGCCCAT_TGTGAGGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-6_GTAC_32_SIC_Index2_09_AAACCTT_TGTGAGGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-7_GTAC_33_SIC_Index2_09_ACCATAC_TGTGAGGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_4b-8_GTAC_34_SIC_Index2_09_AATACGC_TGTGAGGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-9_GTAC_35_SIC_Index2_09_CGCTACA_TGTGAGGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-10_GTAC_36_SIC_Index2_09_TGGCATA_TGTGAGGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-11_GTAC_37_SIC_Index2_09_TTTTGTC_TGTGAGGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-12_GTAC_38_SIC_Index2_09_ACCCACT_TGTGAGGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-13_GTAC_39_SIC_Index2_09_CCGGACC_TGTGAGGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-14_GTAC_40_SIC_Index2_09_GTACGGC_TGTGAGGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-15_GTAC_41_SIC_Index2_09_TTGCCCC_TGTGAGGT_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-16_GTAC_42_SIC_Index2_09_ACTCCAA_TGTGAGGT_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-17_GTAC_43_SIC_Index2_09_TGTGCCA_TGTGAGGT_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-18_GTAC_44_SIC_Index2_09_AACGGAG_TGTGAGGT_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-19_GTAC_45_SIC_Index2_09_GATAGTT_TGTGAGGT_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-20_GTAC_46_SIC_Index2_09_GGTGAAT_TGTGAGGT_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-22_GTAC_48_SIC_Index2_09_GTAAAAA_TGTGAGGT_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-23_GTAC_49_SIC_Index2_09_GTCTGAT_TGTGAGGT_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-24_GTAC_50_SIC_Index2_09_CAATATC_TGTGAGGT_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_4b-25_GTAC_51_SIC_Index2_09_CTCCCGA_TGTGAGGT_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_4b-26_GTAC_52_SIC_Index2_09_GCCGTTT_TGTGAGGT_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-1_GTAC_53_SIC_Index2_09_TAGGTAA_TGTGAGGT_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-2_GTAC_54_SIC_Index2_09_TCGAGAT_TGTGAGGT_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_JR2-3_GTAC_55_SIC_Index2_09_CATTTAG_TGTGAGGT_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-4_GTAC_56_SIC_Index2_09_TCCGGGA_TGTGAGGT_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_JR2-5_GTAC_57_SIC_Index2_09_CGAAAGT_TGTGAGGT_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-6_GTAC_58_SIC_Index2_09_GCCTCCC_TGTGAGGT_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-7_GTAC_59_SIC_Index2_09_AGTTATG_TGTGAGGT_S60_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-8_GTAC_60_SIC_Index2_09_CTGCAAT_TGTGAGGT_S61_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-9_GTAC_61_SIC_Index2_09_CAAGCCG_TGTGAGGT_S62_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large_JR2-10_GTAC_62_SIC_Index2_09_GGGTCAA_TGTGAGGT_S63_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small_2a-21_GTAC_65_SIC_Index2_09_TGCTGGG_TGTGAGGT_S66_R1_001.fastq.gz</t>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>08.22.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-1_GTAC_1_SIC_Index2_09_TGAGGTT_TGTGAGGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-2_GTAC_2_SIC_Index2_09_GCTTAGA_TGTGAGGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-3_GTAC_3_SIC_Index2_09_ATGACAG_TGTGAGGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-4_GTAC_4_SIC_Index2_09_CACCTCC_TGTGAGGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-5_GTAC_5_SIC_Index2_09_ATCGAGC_TGTGAGGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-6_GTAC_6_SIC_Index2_09_TACTCTA_TGTGAGGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-7_GTAC_7_SIC_Index2_09_AGACTGA_TGTGAGGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-8_GTAC_8_SIC_Index2_09_CTTGGAA_TGTGAGGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-9_GTAC_9_SIC_Index2_09_CCGATTA_TGTGAGGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-10_GTAC_10_SIC_Index2_09_GGCAGCG_TGTGAGGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-11_GTAC_11_SIC_Index2_09_CCATCAT_TGTGAGGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-12_GTAC_12_SIC_Index2_09_TAACAAG_TGTGAGGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-13_GTAC_13_SIC_Index2_09_GAGGCGT_TGTGAGGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-14_GTAC_14_SIC_Index2_09_TTTAACT_TGTGAGGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-15_GTAC_15_SIC_Index2_09_GGTCCTC_TGTGAGGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-16_GTAC_16_SIC_Index2_09_CGGTGGC_TGTGAGGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-17_GTAC_17_SIC_Index2_09_ACTGTCG_TGTGAGGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-18_GTAC_18_SIC_Index2_09_GTATTTG_TGTGAGGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-19_GTAC_19_SIC_Index2_09_GAGTACG_TGTGAGGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-20_GTAC_20_SIC_Index2_09_ACAGATA_TGTGAGGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-21_GTAC_21_SIC_Index2_09_CTCAATG_TGTGAGGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-22_GTAC_22_SIC_Index2_09_AAATGCA_TGTGAGGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-23_GTAC_23_SIC_Index2_09_ACGCGGG_TGTGAGGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-24_GTAC_24_SIC_Index2_09_GGAGTCC_TGTGAGGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3d-25_GTAC_25_SIC_Index2_09_CGTCGCT_TGTGAGGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>08.29.19</t>
+  </si>
+  <si>
+    <t>Brent_small_3d-26_GTAC_26_SIC_Index2_09_TCAACTG_TGTGAGGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10.29.19</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-1_GTAC_27_SIC_Index2_09_TGTTTGT_TGTGAGGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-2_GTAC_28_SIC_Index2_09_TACATGG_TGTGAGGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-3_GTAC_29_SIC_Index2_09_GTTCTCA_TGTGAGGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-4_GTAC_30_SIC_Index2_09_CTGGTGG_TGTGAGGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-5_GTAC_31_SIC_Index2_09_TGCCCAT_TGTGAGGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-6_GTAC_32_SIC_Index2_09_AAACCTT_TGTGAGGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-7_GTAC_33_SIC_Index2_09_ACCATAC_TGTGAGGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_4b-8_GTAC_34_SIC_Index2_09_AATACGC_TGTGAGGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-9_GTAC_35_SIC_Index2_09_CGCTACA_TGTGAGGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-10_GTAC_36_SIC_Index2_09_TGGCATA_TGTGAGGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-11_GTAC_37_SIC_Index2_09_TTTTGTC_TGTGAGGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-12_GTAC_38_SIC_Index2_09_ACCCACT_TGTGAGGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-13_GTAC_39_SIC_Index2_09_CCGGACC_TGTGAGGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-14_GTAC_40_SIC_Index2_09_GTACGGC_TGTGAGGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-15_GTAC_41_SIC_Index2_09_TTGCCCC_TGTGAGGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-16_GTAC_42_SIC_Index2_09_ACTCCAA_TGTGAGGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-17_GTAC_43_SIC_Index2_09_TGTGCCA_TGTGAGGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-18_GTAC_44_SIC_Index2_09_AACGGAG_TGTGAGGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-19_GTAC_45_SIC_Index2_09_GATAGTT_TGTGAGGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-20_GTAC_46_SIC_Index2_09_GGTGAAT_TGTGAGGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-22_GTAC_48_SIC_Index2_09_GTAAAAA_TGTGAGGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-23_GTAC_49_SIC_Index2_09_GTCTGAT_TGTGAGGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-24_GTAC_50_SIC_Index2_09_CAATATC_TGTGAGGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_4b-25_GTAC_51_SIC_Index2_09_CTCCCGA_TGTGAGGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_4b-26_GTAC_52_SIC_Index2_09_GCCGTTT_TGTGAGGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-1_GTAC_53_SIC_Index2_09_TAGGTAA_TGTGAGGT_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-2_GTAC_54_SIC_Index2_09_TCGAGAT_TGTGAGGT_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_JR2-3_GTAC_55_SIC_Index2_09_CATTTAG_TGTGAGGT_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-4_GTAC_56_SIC_Index2_09_TCCGGGA_TGTGAGGT_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_JR2-5_GTAC_57_SIC_Index2_09_CGAAAGT_TGTGAGGT_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-6_GTAC_58_SIC_Index2_09_GCCTCCC_TGTGAGGT_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-7_GTAC_59_SIC_Index2_09_AGTTATG_TGTGAGGT_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-8_GTAC_60_SIC_Index2_09_CTGCAAT_TGTGAGGT_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-9_GTAC_61_SIC_Index2_09_CAAGCCG_TGTGAGGT_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_JR2-10_GTAC_62_SIC_Index2_09_GGGTCAA_TGTGAGGT_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_2a-21_GTAC_65_SIC_Index2_09_TGCTGGG_TGTGAGGT_S66_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -337,7 +325,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -345,105 +333,352 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +709,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -495,17 +730,17 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>4011</v>
       </c>
       <c r="E2" s="2"/>
@@ -518,13 +753,13 @@
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2">
         <v>2004</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -545,17 +780,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>4011</v>
       </c>
       <c r="E3" s="2"/>
@@ -568,13 +803,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>3.9</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3">
         <v>4241983</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -594,17 +829,17 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>4011</v>
       </c>
       <c r="E4" s="2"/>
@@ -617,13 +852,13 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>4.2</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="7">
         <v>10.6</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4">
         <v>58898699</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -643,17 +878,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>4011</v>
       </c>
       <c r="E5" s="2"/>
@@ -666,13 +901,13 @@
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="J5">
         <v>8.5</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5">
         <v>4506700</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -692,17 +927,17 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>4011</v>
       </c>
       <c r="E6" s="2"/>
@@ -715,13 +950,13 @@
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>1.43</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>23.7</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6">
         <v>14768721</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -741,17 +976,17 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>4011</v>
       </c>
       <c r="E7" s="2"/>
@@ -764,13 +999,13 @@
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J7">
         <v>8</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7">
         <v>3652980</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -790,17 +1025,17 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>4011</v>
       </c>
       <c r="E8" s="2"/>
@@ -813,13 +1048,13 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8">
         <v>14310</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -839,17 +1074,17 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>4011</v>
       </c>
       <c r="E9" s="2"/>
@@ -862,13 +1097,13 @@
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9">
         <v>14888</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -888,17 +1123,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>4011</v>
       </c>
       <c r="E10" s="2"/>
@@ -911,13 +1146,13 @@
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>7.15</v>
       </c>
-      <c r="J10" s="7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K10" s="6" t="n">
+      <c r="J10" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10">
         <v>5326406</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -938,17 +1173,17 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>4011</v>
       </c>
       <c r="E11" s="2"/>
@@ -961,13 +1196,13 @@
       <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="J11" s="7" t="n">
+      <c r="I11">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J11" s="7">
         <v>5.9</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11">
         <v>7093565</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -988,17 +1223,17 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>4011</v>
       </c>
       <c r="E12" s="2"/>
@@ -1011,13 +1246,13 @@
       <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J12" s="7" t="n">
+      <c r="I12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J12" s="7">
         <v>4.3</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12">
         <v>6365330</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -1038,17 +1273,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>4011</v>
       </c>
       <c r="E13" s="2"/>
@@ -1061,13 +1296,13 @@
       <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K13" s="6" t="n">
+      <c r="I13">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K13">
         <v>4869326</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1088,17 +1323,17 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>4011</v>
       </c>
       <c r="E14" s="2"/>
@@ -1111,13 +1346,13 @@
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J14">
         <v>11.5</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14">
         <v>4237164</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1138,17 +1373,17 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="n">
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4">
         <v>4011</v>
       </c>
       <c r="E15" s="2"/>
@@ -1161,13 +1396,13 @@
       <c r="H15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>7.15</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15">
         <v>3172</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1188,17 +1423,17 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="n">
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
         <v>4011</v>
       </c>
       <c r="E16" s="2"/>
@@ -1211,13 +1446,13 @@
       <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16">
         <v>4409</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -1238,17 +1473,17 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
         <v>4011</v>
       </c>
       <c r="E17" s="2"/>
@@ -1261,13 +1496,13 @@
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>0.46</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17">
         <v>9921685</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1288,17 +1523,17 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>4011</v>
       </c>
       <c r="E18" s="2"/>
@@ -1311,13 +1546,13 @@
       <c r="H18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="I18">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J18">
         <v>4.3</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18">
         <v>4203647</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -1338,17 +1573,17 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>4011</v>
       </c>
       <c r="E19" s="2"/>
@@ -1361,13 +1596,13 @@
       <c r="H19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>0.308</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19">
         <v>11870</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -1388,17 +1623,17 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>4011</v>
       </c>
       <c r="E20" s="2"/>
@@ -1411,13 +1646,13 @@
       <c r="H20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>0.216</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20">
         <v>3007</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1438,17 +1673,17 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>4011</v>
       </c>
       <c r="E21" s="2"/>
@@ -1461,13 +1696,13 @@
       <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="I21">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21">
         <v>15339</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -1488,17 +1723,17 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>4011</v>
       </c>
       <c r="E22" s="2"/>
@@ -1511,13 +1746,13 @@
       <c r="H22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>0.27</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22">
         <v>11447</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -1538,17 +1773,17 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>4011</v>
       </c>
       <c r="E23" s="2"/>
@@ -1561,13 +1796,13 @@
       <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23">
         <v>11126</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -1588,17 +1823,17 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>4011</v>
       </c>
       <c r="E24" s="2"/>
@@ -1611,13 +1846,13 @@
       <c r="H24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>0.24</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24">
         <v>3290</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -1638,17 +1873,17 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>4011</v>
       </c>
       <c r="E25" s="2"/>
@@ -1661,13 +1896,13 @@
       <c r="H25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>0.155</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="6" t="n">
+      <c r="K25">
         <v>7500</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -1688,17 +1923,17 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>4011</v>
       </c>
       <c r="E26" s="2"/>
@@ -1711,13 +1946,13 @@
       <c r="H26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>33.4</v>
       </c>
-      <c r="J26" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K26" s="6" t="n">
+      <c r="J26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K26">
         <v>6738052</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -1738,17 +1973,17 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>4011</v>
       </c>
       <c r="E27" s="2"/>
@@ -1761,13 +1996,13 @@
       <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="I27">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J27">
         <v>6.1</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27">
         <v>5031505</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -1788,17 +2023,17 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>4011</v>
       </c>
       <c r="E28" s="2"/>
@@ -1811,13 +2046,13 @@
       <c r="H28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K28" s="10" t="n">
+      <c r="J28" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K28">
         <v>7231560</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -1838,1324 +2073,1319 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="D29">
+        <v>4011</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
         <v>0.6</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>10213502</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" t="s">
         <v>47</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="0" t="n">
+      <c r="D30">
+        <v>4011</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>2.1</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>6822014</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>48</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="D31">
+        <v>4011</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K31" s="0" t="n">
+      <c r="J31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K31">
         <v>4341048</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" t="s">
         <v>49</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="D32">
+        <v>4011</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32">
         <v>2.9</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32">
         <v>6680365</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>50</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="0" t="n">
+      <c r="D33">
+        <v>4011</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
         <v>10</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>0.5</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>6844663</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" t="s">
         <v>51</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K34" s="0" t="n">
+      <c r="D34">
+        <v>4011</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K34">
         <v>3994543</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" t="s">
         <v>52</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="D35">
+        <v>4011</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J35">
         <v>23.2</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>2257508</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" t="s">
         <v>53</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="K36" s="0" t="n">
+      <c r="D36">
+        <v>4011</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J36">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K36">
         <v>18162855</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" t="s">
         <v>54</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="0" t="n">
+      <c r="D37">
+        <v>4011</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37">
         <v>10</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37">
         <v>0.7</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37">
         <v>9140479</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>55</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>11</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="D38">
+        <v>4011</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
         <v>93.3</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38">
         <v>6.8</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>36598293</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>56</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>12</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="0" t="n">
+      <c r="D39">
+        <v>4011</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39">
         <v>5237450</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>57</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="0" t="n">
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4011</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
         <v>3.2</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40">
         <v>10.3</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40">
         <v>34123859</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" t="s">
         <v>58</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4011</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41">
         <v>15.2</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K41" s="0" t="n">
+      <c r="J41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K41">
         <v>3595819</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" t="s">
         <v>59</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="0" t="n">
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4011</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42">
         <v>61.6</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42">
         <v>3.3</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42">
         <v>3874045</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" t="s">
         <v>60</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>4011</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K43" s="0" t="n">
+      <c r="J43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K43">
         <v>7222032</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>61</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="0" t="n">
+      <c r="D44">
+        <v>4011</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
-      <c r="J44" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K44" s="0" t="n">
+      <c r="J44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K44">
         <v>4500388</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>62</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>18</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="D45">
+        <v>4011</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
         <v>76.8</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45">
         <v>4.3</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45">
         <v>6121691</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" t="s">
         <v>63</v>
       </c>
       <c r="P45" s="3"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>19</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="0" t="n">
+      <c r="D46">
+        <v>4011</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46">
         <v>27.3</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K46" s="0" t="n">
+      <c r="J46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K46">
         <v>2717379</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>64</v>
       </c>
       <c r="P46" s="3"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>20</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="0" t="n">
+      <c r="D47">
+        <v>4011</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47">
         <v>106</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47">
         <v>2.6</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47">
         <v>3559294</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>65</v>
       </c>
       <c r="P47" s="3"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>22</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J48" s="0" t="n">
+      <c r="D48">
+        <v>4011</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J48">
         <v>51.8</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48">
         <v>11938927</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>66</v>
       </c>
       <c r="P48" s="3"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>23</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="0" t="n">
+      <c r="D49">
+        <v>4011</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
         <v>5.77</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49">
         <v>6.9</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49">
         <v>40713836</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>67</v>
       </c>
       <c r="P49" s="3"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>24</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="0" t="n">
+      <c r="D50">
+        <v>4011</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50">
         <v>6.2</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50">
         <v>7.1</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50">
         <v>46339288</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>68</v>
       </c>
       <c r="P50" s="3"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>25</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="0" t="n">
+      <c r="D51">
+        <v>4011</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51">
         <v>28.5</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51">
         <v>2</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51">
         <v>2799214</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" t="s">
         <v>69</v>
       </c>
       <c r="P51" s="3"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>26</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="0" t="n">
+      <c r="D52">
+        <v>4011</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52">
         <v>0.624</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52">
         <v>6.3</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52">
         <v>4112294</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>70</v>
       </c>
       <c r="P52" s="3"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>27</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J53" s="0" t="n">
+      <c r="D53">
+        <v>4011</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J53">
         <v>0.7</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53">
         <v>5844319</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>71</v>
       </c>
       <c r="P53" s="3"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>28</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="0" t="n">
+      <c r="D54">
+        <v>4011</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54">
         <v>1.3</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54">
         <v>0.8</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54">
         <v>6132196</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" t="s">
         <v>72</v>
       </c>
       <c r="P54" s="3"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>29</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="J55" s="0" t="n">
+      <c r="D55">
+        <v>4011</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J55">
         <v>3.2</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55">
         <v>4521601</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" t="s">
         <v>73</v>
       </c>
       <c r="P55" s="3"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>30</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="0" t="n">
+      <c r="D56">
+        <v>4011</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56">
         <v>30.3</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56">
         <v>4.5</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56">
         <v>4796508</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" t="s">
         <v>74</v>
       </c>
       <c r="P56" s="3"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>31</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="J57" s="0" t="n">
+      <c r="D57">
+        <v>4011</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J57">
         <v>60.1</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57">
         <v>884346</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" t="s">
         <v>75</v>
       </c>
       <c r="P57" s="3"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>32</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="0" t="n">
+      <c r="D58">
+        <v>4011</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58">
         <v>1.6</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58">
         <v>7.3</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58">
         <v>5746575</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" t="s">
         <v>76</v>
       </c>
       <c r="P58" s="3"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>45</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>33</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="0" t="n">
+      <c r="D59">
+        <v>4011</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59">
         <v>7.4</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59">
         <v>5.5</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59">
         <v>7229787</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" t="s">
         <v>77</v>
       </c>
       <c r="P59" s="3"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>34</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="0" t="n">
+      <c r="D60">
+        <v>4011</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60">
         <v>2.4</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60">
         <v>1.2</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60">
         <v>5333709</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" t="s">
         <v>78</v>
       </c>
       <c r="P60" s="3"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>35</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="0" t="n">
+      <c r="D61">
+        <v>4011</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61">
         <v>2.76</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61">
         <v>18.8</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61">
         <v>44030131</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" t="s">
         <v>79</v>
       </c>
       <c r="P61" s="3"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>36</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="0" t="n">
+      <c r="D62">
+        <v>4011</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62">
         <v>3.61</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62">
         <v>12.3</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62">
         <v>43674917</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" t="s">
         <v>80</v>
       </c>
       <c r="P62" s="3"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>39</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="0" t="n">
+      <c r="D63">
+        <v>4011</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63">
         <v>6.9</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63">
         <v>1991285</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" t="s">
         <v>81</v>
       </c>
       <c r="P63" s="3"/>
       <c r="R63" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7558C48-2F47-A44B-8C3F-57B386361EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FAD6D-96F9-0B4D-8502-9AC440C145CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="81">
   <si>
     <t>libraryDate</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>fullRNASeq</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>Brent_small_3d-1_GTAC_1_SIC_Index2_09_TGAGGTT_TGTGAGGT_S2_R1_001.fastq.gz</t>
@@ -670,7 +667,7 @@
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,9 +750,6 @@
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2">
         <v>5</v>
       </c>
@@ -763,7 +757,7 @@
         <v>2004</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -803,9 +797,6 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3">
         <v>3.9</v>
       </c>
@@ -813,7 +804,7 @@
         <v>4241983</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -862,7 +853,7 @@
         <v>58898699</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -911,7 +902,7 @@
         <v>4506700</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -960,7 +951,7 @@
         <v>14768721</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1009,7 +1000,7 @@
         <v>3652980</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1048,9 +1039,6 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8">
         <v>5</v>
       </c>
@@ -1058,7 +1046,7 @@
         <v>14310</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1097,9 +1085,6 @@
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9">
         <v>5</v>
       </c>
@@ -1107,7 +1092,7 @@
         <v>14888</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1156,7 +1141,7 @@
         <v>5326406</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1206,7 +1191,7 @@
         <v>7093565</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1256,7 +1241,7 @@
         <v>6365330</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1306,7 +1291,7 @@
         <v>4869326</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1356,7 +1341,7 @@
         <v>4237164</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1406,7 +1391,7 @@
         <v>3172</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1456,7 +1441,7 @@
         <v>4409</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1506,7 +1491,7 @@
         <v>9921685</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1556,7 +1541,7 @@
         <v>4203647</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1606,7 +1591,7 @@
         <v>11870</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1656,7 +1641,7 @@
         <v>3007</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1706,7 +1691,7 @@
         <v>15339</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1756,7 +1741,7 @@
         <v>11447</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1806,7 +1791,7 @@
         <v>11126</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1856,7 +1841,7 @@
         <v>3290</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1906,7 +1891,7 @@
         <v>7500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1956,7 +1941,7 @@
         <v>6738052</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1975,7 +1960,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
@@ -2006,7 +1991,7 @@
         <v>5031505</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2025,7 +2010,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -2056,7 +2041,7 @@
         <v>7231560</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2075,7 +2060,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -2105,7 +2090,7 @@
         <v>10213502</v>
       </c>
       <c r="L29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2113,7 +2098,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
@@ -2143,7 +2128,7 @@
         <v>6822014</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2151,7 +2136,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -2181,7 +2166,7 @@
         <v>4341048</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -2189,7 +2174,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -2219,7 +2204,7 @@
         <v>6680365</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2227,7 +2212,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
@@ -2257,7 +2242,7 @@
         <v>6844663</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2265,7 +2250,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -2295,7 +2280,7 @@
         <v>3994543</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2303,7 +2288,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
@@ -2333,7 +2318,7 @@
         <v>2257508</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -2341,7 +2326,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
@@ -2371,7 +2356,7 @@
         <v>18162855</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2379,7 +2364,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
@@ -2409,7 +2394,7 @@
         <v>9140479</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2417,7 +2402,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -2447,7 +2432,7 @@
         <v>36598293</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -2455,7 +2440,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
@@ -2485,7 +2470,7 @@
         <v>5237450</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -2493,7 +2478,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
@@ -2523,7 +2508,7 @@
         <v>34123859</v>
       </c>
       <c r="L40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -2531,7 +2516,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
@@ -2561,7 +2546,7 @@
         <v>3595819</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -2569,7 +2554,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
@@ -2599,7 +2584,7 @@
         <v>3874045</v>
       </c>
       <c r="L42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -2607,7 +2592,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -2637,7 +2622,7 @@
         <v>7222032</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -2645,7 +2630,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
@@ -2675,7 +2660,7 @@
         <v>4500388</v>
       </c>
       <c r="L44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -2683,7 +2668,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -2713,14 +2698,14 @@
         <v>6121691</v>
       </c>
       <c r="L45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P45" s="3"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -2750,14 +2735,14 @@
         <v>2717379</v>
       </c>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P46" s="3"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -2787,14 +2772,14 @@
         <v>3559294</v>
       </c>
       <c r="L47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P47" s="3"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -2824,14 +2809,14 @@
         <v>11938927</v>
       </c>
       <c r="L48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P48" s="3"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
@@ -2861,14 +2846,14 @@
         <v>40713836</v>
       </c>
       <c r="L49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P49" s="3"/>
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
@@ -2898,14 +2883,14 @@
         <v>46339288</v>
       </c>
       <c r="L50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P50" s="3"/>
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
@@ -2935,14 +2920,14 @@
         <v>2799214</v>
       </c>
       <c r="L51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P51" s="3"/>
       <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
@@ -2972,14 +2957,14 @@
         <v>4112294</v>
       </c>
       <c r="L52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" s="3"/>
       <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
@@ -3009,14 +2994,14 @@
         <v>5844319</v>
       </c>
       <c r="L53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P53" s="3"/>
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
@@ -3046,14 +3031,14 @@
         <v>6132196</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P54" s="3"/>
       <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -3083,14 +3068,14 @@
         <v>4521601</v>
       </c>
       <c r="L55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P55" s="3"/>
       <c r="R55" s="6"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
@@ -3120,14 +3105,14 @@
         <v>4796508</v>
       </c>
       <c r="L56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P56" s="3"/>
       <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
@@ -3157,14 +3142,14 @@
         <v>884346</v>
       </c>
       <c r="L57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P57" s="3"/>
       <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -3194,14 +3179,14 @@
         <v>5746575</v>
       </c>
       <c r="L58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P58" s="3"/>
       <c r="R58" s="6"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -3231,14 +3216,14 @@
         <v>7229787</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P59" s="3"/>
       <c r="R59" s="6"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -3268,14 +3253,14 @@
         <v>5333709</v>
       </c>
       <c r="L60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P60" s="3"/>
       <c r="R60" s="6"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
@@ -3305,14 +3290,14 @@
         <v>44030131</v>
       </c>
       <c r="L61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P61" s="3"/>
       <c r="R61" s="6"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
@@ -3342,14 +3327,14 @@
         <v>43674917</v>
       </c>
       <c r="L62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P62" s="3"/>
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
@@ -3379,7 +3364,7 @@
         <v>1991285</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P63" s="3"/>
       <c r="R63" s="6"/>

--- a/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FAD6D-96F9-0B4D-8502-9AC440C145CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C170C-73F0-7946-A661-580B30787D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="80">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -664,18 +661,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,21 +694,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -725,14 +720,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -740,25 +734,25 @@
       <c r="D2" s="4">
         <v>4011</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>2004</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>2004</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -772,14 +766,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -787,30 +780,30 @@
       <c r="D3" s="4">
         <v>4011</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
+      <c r="I3">
+        <v>3.9</v>
       </c>
       <c r="J3">
-        <v>3.9</v>
-      </c>
-      <c r="K3">
         <v>4241983</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="6"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -818,14 +811,13 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -833,33 +825,33 @@
       <c r="D4" s="4">
         <v>4011</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>4.2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="I4" s="7">
         <v>10.6</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>58898699</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="R4" s="6"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -867,14 +859,13 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -882,33 +873,33 @@
       <c r="D5" s="4">
         <v>4011</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>0.33400000000000002</v>
       </c>
       <c r="I5">
-        <v>0.33400000000000002</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>8.5</v>
-      </c>
-      <c r="K5">
         <v>4506700</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="R5" s="6"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -916,14 +907,13 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -931,33 +921,33 @@
       <c r="D6" s="4">
         <v>4011</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
         <v>1.43</v>
       </c>
-      <c r="J6" s="7">
+      <c r="I6" s="7">
         <v>23.7</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>14768721</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="R6" s="6"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -965,14 +955,13 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -980,33 +969,33 @@
       <c r="D7" s="4">
         <v>4011</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>0.42399999999999999</v>
       </c>
       <c r="I7">
-        <v>0.42399999999999999</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
         <v>3652980</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1014,14 +1003,13 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1029,30 +1017,30 @@
       <c r="D8" s="4">
         <v>4011</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
+      <c r="I8">
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
         <v>14310</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1060,14 +1048,13 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1075,30 +1062,30 @@
       <c r="D9" s="4">
         <v>4011</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
+      <c r="I9">
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
         <v>14888</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="K9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1106,14 +1093,13 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1121,34 +1107,34 @@
       <c r="D10" s="4">
         <v>4011</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
         <v>7.15</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>5326406</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1156,14 +1142,13 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1171,34 +1156,34 @@
       <c r="D11" s="4">
         <v>4011</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J11" s="7">
+      <c r="I11" s="7">
         <v>5.9</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>7093565</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1206,14 +1191,13 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1221,34 +1205,34 @@
       <c r="D12" s="4">
         <v>4011</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <v>10.199999999999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="I12" s="7">
         <v>4.3</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <v>6365330</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="K12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1256,14 +1240,13 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1271,34 +1254,34 @@
       <c r="D13" s="4">
         <v>4011</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
+      <c r="H13">
+        <v>0.83199999999999996</v>
       </c>
       <c r="I13">
-        <v>0.83199999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K13">
         <v>4869326</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1306,14 +1289,13 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1321,34 +1303,34 @@
       <c r="D14" s="4">
         <v>4011</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
+      <c r="H14">
+        <v>0.41299999999999998</v>
       </c>
       <c r="I14">
-        <v>0.41299999999999998</v>
+        <v>11.5</v>
       </c>
       <c r="J14">
-        <v>11.5</v>
-      </c>
-      <c r="K14">
         <v>4237164</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="K14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1356,14 +1338,13 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1371,34 +1352,34 @@
       <c r="D15" s="4">
         <v>4011</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
+      <c r="H15">
+        <v>7.15</v>
       </c>
       <c r="I15">
-        <v>7.15</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
         <v>3172</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="K15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1406,14 +1387,13 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1421,34 +1401,34 @@
       <c r="D16" s="4">
         <v>4011</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" s="7">
+      <c r="I16" s="7">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>4409</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1456,14 +1436,13 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1471,34 +1450,34 @@
       <c r="D17" s="4">
         <v>4011</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>0.46</v>
       </c>
       <c r="I17">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="J17">
-        <v>0.8</v>
-      </c>
-      <c r="K17">
         <v>9921685</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1506,14 +1485,13 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1521,34 +1499,34 @@
       <c r="D18" s="4">
         <v>4011</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
+      <c r="H18">
+        <v>0.59799999999999998</v>
       </c>
       <c r="I18">
-        <v>0.59799999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J18">
-        <v>4.3</v>
-      </c>
-      <c r="K18">
         <v>4203647</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1556,14 +1534,13 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1571,34 +1548,34 @@
       <c r="D19" s="4">
         <v>4011</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
+      <c r="H19">
+        <v>0.308</v>
       </c>
       <c r="I19">
-        <v>0.308</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
         <v>11870</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="K19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1606,14 +1583,13 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1621,34 +1597,34 @@
       <c r="D20" s="4">
         <v>4011</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>16</v>
+      <c r="H20">
+        <v>0.216</v>
       </c>
       <c r="I20">
-        <v>0.216</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
         <v>3007</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="K20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1656,14 +1632,13 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1671,34 +1646,34 @@
       <c r="D21" s="4">
         <v>4011</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
+      <c r="H21">
+        <v>0.33300000000000002</v>
       </c>
       <c r="I21">
-        <v>0.33300000000000002</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
         <v>15339</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="K21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1706,14 +1681,13 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1721,34 +1695,34 @@
       <c r="D22" s="4">
         <v>4011</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>16</v>
+      <c r="H22">
+        <v>0.27</v>
       </c>
       <c r="I22">
-        <v>0.27</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
         <v>11447</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1756,14 +1730,13 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1771,34 +1744,34 @@
       <c r="D23" s="4">
         <v>4011</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
+      <c r="H23">
+        <v>0.21299999999999999</v>
       </c>
       <c r="I23">
-        <v>0.21299999999999999</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
         <v>11126</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="K23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1806,14 +1779,13 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1821,34 +1793,34 @@
       <c r="D24" s="4">
         <v>4011</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
+      <c r="H24">
+        <v>0.24</v>
       </c>
       <c r="I24">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
         <v>3290</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="K24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1856,14 +1828,13 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1871,34 +1842,34 @@
       <c r="D25" s="4">
         <v>4011</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
+      <c r="H25">
+        <v>0.155</v>
       </c>
       <c r="I25">
-        <v>0.155</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
         <v>7500</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="K25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1906,14 +1877,13 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1921,34 +1891,34 @@
       <c r="D26" s="4">
         <v>4011</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>16</v>
+      <c r="H26">
+        <v>33.4</v>
       </c>
       <c r="I26">
-        <v>33.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K26">
         <v>6738052</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="K26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1956,14 +1926,13 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1971,34 +1940,34 @@
       <c r="D27" s="4">
         <v>4011</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>16</v>
+      <c r="H27">
+        <v>0.51800000000000002</v>
       </c>
       <c r="I27">
-        <v>0.51800000000000002</v>
+        <v>6.1</v>
       </c>
       <c r="J27">
-        <v>6.1</v>
-      </c>
-      <c r="K27">
         <v>5031505</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="K27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2006,14 +1975,13 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -2021,34 +1989,34 @@
       <c r="D28" s="4">
         <v>4011</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
+      <c r="H28" s="9">
+        <v>3</v>
       </c>
       <c r="I28" s="9">
-        <v>3</v>
-      </c>
-      <c r="J28" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>7231560</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="K28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2056,14 +2024,13 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2071,37 +2038,37 @@
       <c r="D29">
         <v>4011</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
+      <c r="H29">
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>0.6</v>
       </c>
       <c r="J29">
-        <v>0.6</v>
-      </c>
-      <c r="K29">
         <v>10213502</v>
       </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2109,37 +2076,37 @@
       <c r="D30">
         <v>4011</v>
       </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
+      <c r="H30">
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
-      </c>
-      <c r="K30">
         <v>6822014</v>
       </c>
-      <c r="L30" t="s">
-        <v>47</v>
-      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2147,37 +2114,37 @@
       <c r="D31">
         <v>4011</v>
       </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31">
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K31">
         <v>4341048</v>
       </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2185,37 +2152,37 @@
       <c r="D32">
         <v>4011</v>
       </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
+      <c r="H32">
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J32">
-        <v>2.9</v>
-      </c>
-      <c r="K32">
         <v>6680365</v>
       </c>
-      <c r="L32" t="s">
-        <v>49</v>
-      </c>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2223,37 +2190,37 @@
       <c r="D33">
         <v>4011</v>
       </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="H33">
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="J33">
-        <v>0.5</v>
-      </c>
-      <c r="K33">
         <v>6844663</v>
       </c>
-      <c r="L33" t="s">
-        <v>50</v>
-      </c>
+      <c r="K33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2261,37 +2228,37 @@
       <c r="D34">
         <v>4011</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
+      <c r="H34">
+        <v>14</v>
       </c>
       <c r="I34">
-        <v>14</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J34">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K34">
         <v>3994543</v>
       </c>
-      <c r="L34" t="s">
-        <v>51</v>
-      </c>
+      <c r="K34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2299,37 +2266,37 @@
       <c r="D35">
         <v>4011</v>
       </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
+      <c r="H35">
+        <v>0.54800000000000004</v>
       </c>
       <c r="I35">
-        <v>0.54800000000000004</v>
+        <v>23.2</v>
       </c>
       <c r="J35">
-        <v>23.2</v>
-      </c>
-      <c r="K35">
         <v>2257508</v>
       </c>
-      <c r="L35" t="s">
-        <v>52</v>
-      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2337,37 +2304,37 @@
       <c r="D36">
         <v>4011</v>
       </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="H36">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I36">
-        <v>1.1000000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J36">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K36">
         <v>18162855</v>
       </c>
-      <c r="L36" t="s">
-        <v>53</v>
-      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2375,37 +2342,37 @@
       <c r="D37">
         <v>4011</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="H37">
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="J37">
-        <v>0.7</v>
-      </c>
-      <c r="K37">
         <v>9140479</v>
       </c>
-      <c r="L37" t="s">
-        <v>54</v>
-      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2413,189 +2380,189 @@
       <c r="D38">
         <v>4011</v>
       </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" t="s">
-        <v>16</v>
+      <c r="H38">
+        <v>93.3</v>
       </c>
       <c r="I38">
-        <v>93.3</v>
+        <v>6.8</v>
       </c>
       <c r="J38">
-        <v>6.8</v>
-      </c>
-      <c r="K38">
         <v>36598293</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4011</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>5237450</v>
+      </c>
+      <c r="K39" t="s">
         <v>55</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>4011</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>5237450</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4011</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>3.2</v>
+      </c>
+      <c r="I40">
+        <v>10.3</v>
+      </c>
+      <c r="J40">
+        <v>34123859</v>
+      </c>
+      <c r="K40" t="s">
         <v>56</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>4011</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>3.2</v>
-      </c>
-      <c r="J40">
-        <v>10.3</v>
-      </c>
-      <c r="K40">
-        <v>34123859</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4011</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>15.2</v>
+      </c>
+      <c r="I41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J41">
+        <v>3595819</v>
+      </c>
+      <c r="K41" t="s">
         <v>57</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>4011</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
-        <v>15.2</v>
-      </c>
-      <c r="J41">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K41">
-        <v>3595819</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4011</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>61.6</v>
+      </c>
+      <c r="I42">
+        <v>3.3</v>
+      </c>
+      <c r="J42">
+        <v>3874045</v>
+      </c>
+      <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>4011</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42">
-        <v>61.6</v>
-      </c>
-      <c r="J42">
-        <v>3.3</v>
-      </c>
-      <c r="K42">
-        <v>3874045</v>
-      </c>
-      <c r="L42" t="s">
-        <v>59</v>
-      </c>
+      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2603,37 +2570,37 @@
       <c r="D43">
         <v>4011</v>
       </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" t="s">
-        <v>16</v>
+      <c r="H43">
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K43">
         <v>7222032</v>
       </c>
-      <c r="L43" t="s">
-        <v>60</v>
-      </c>
+      <c r="K43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2641,37 +2608,37 @@
       <c r="D44">
         <v>4011</v>
       </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
-        <v>16</v>
+      <c r="H44">
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K44">
         <v>4500388</v>
       </c>
-      <c r="L44" t="s">
-        <v>61</v>
-      </c>
+      <c r="K44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2679,36 +2646,36 @@
       <c r="D45">
         <v>4011</v>
       </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" t="s">
-        <v>16</v>
+      <c r="H45">
+        <v>76.8</v>
       </c>
       <c r="I45">
-        <v>76.8</v>
+        <v>4.3</v>
       </c>
       <c r="J45">
-        <v>4.3</v>
-      </c>
-      <c r="K45">
         <v>6121691</v>
       </c>
-      <c r="L45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2716,36 +2683,36 @@
       <c r="D46">
         <v>4011</v>
       </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
       </c>
-      <c r="H46" t="s">
-        <v>16</v>
+      <c r="H46">
+        <v>27.3</v>
       </c>
       <c r="I46">
-        <v>27.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K46">
         <v>2717379</v>
       </c>
-      <c r="L46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2753,36 +2720,36 @@
       <c r="D47">
         <v>4011</v>
       </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
-        <v>16</v>
+      <c r="H47">
+        <v>106</v>
       </c>
       <c r="I47">
-        <v>106</v>
+        <v>2.6</v>
       </c>
       <c r="J47">
-        <v>2.6</v>
-      </c>
-      <c r="K47">
         <v>3559294</v>
       </c>
-      <c r="L47" t="s">
-        <v>64</v>
-      </c>
-      <c r="P47" s="3"/>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>22</v>
@@ -2790,36 +2757,36 @@
       <c r="D48">
         <v>4011</v>
       </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" t="s">
-        <v>16</v>
+      <c r="H48">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I48">
-        <v>1.1000000000000001</v>
+        <v>51.8</v>
       </c>
       <c r="J48">
-        <v>51.8</v>
-      </c>
-      <c r="K48">
         <v>11938927</v>
       </c>
-      <c r="L48" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>23</v>
@@ -2827,36 +2794,36 @@
       <c r="D49">
         <v>4011</v>
       </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" t="s">
-        <v>16</v>
+      <c r="H49">
+        <v>5.77</v>
       </c>
       <c r="I49">
-        <v>5.77</v>
+        <v>6.9</v>
       </c>
       <c r="J49">
-        <v>6.9</v>
-      </c>
-      <c r="K49">
         <v>40713836</v>
       </c>
-      <c r="L49" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>24</v>
@@ -2864,36 +2831,36 @@
       <c r="D50">
         <v>4011</v>
       </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
-        <v>16</v>
+      <c r="H50">
+        <v>6.2</v>
       </c>
       <c r="I50">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="J50">
-        <v>7.1</v>
-      </c>
-      <c r="K50">
         <v>46339288</v>
       </c>
-      <c r="L50" t="s">
-        <v>67</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="R50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="3"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>25</v>
@@ -2901,36 +2868,36 @@
       <c r="D51">
         <v>4011</v>
       </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
-        <v>16</v>
+      <c r="H51">
+        <v>28.5</v>
       </c>
       <c r="I51">
-        <v>28.5</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51">
         <v>2799214</v>
       </c>
-      <c r="L51" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="R51" s="6"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>26</v>
@@ -2938,36 +2905,36 @@
       <c r="D52">
         <v>4011</v>
       </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" t="s">
-        <v>16</v>
+      <c r="H52">
+        <v>0.624</v>
       </c>
       <c r="I52">
-        <v>0.624</v>
+        <v>6.3</v>
       </c>
       <c r="J52">
-        <v>6.3</v>
-      </c>
-      <c r="K52">
         <v>4112294</v>
       </c>
-      <c r="L52" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="R52" s="6"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>27</v>
@@ -2975,36 +2942,36 @@
       <c r="D53">
         <v>4011</v>
       </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
-        <v>16</v>
+      <c r="H53">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I53">
-        <v>2.2000000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="J53">
-        <v>0.7</v>
-      </c>
-      <c r="K53">
         <v>5844319</v>
       </c>
-      <c r="L53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>69</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>28</v>
@@ -3012,36 +2979,36 @@
       <c r="D54">
         <v>4011</v>
       </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" t="s">
-        <v>16</v>
+      <c r="H54">
+        <v>1.3</v>
       </c>
       <c r="I54">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="J54">
-        <v>0.8</v>
-      </c>
-      <c r="K54">
         <v>6132196</v>
       </c>
-      <c r="L54" t="s">
-        <v>71</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="R54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>70</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>29</v>
@@ -3049,36 +3016,36 @@
       <c r="D55">
         <v>4011</v>
       </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" t="s">
-        <v>16</v>
+      <c r="H55">
+        <v>0.73499999999999999</v>
       </c>
       <c r="I55">
-        <v>0.73499999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="J55">
-        <v>3.2</v>
-      </c>
-      <c r="K55">
         <v>4521601</v>
       </c>
-      <c r="L55" t="s">
-        <v>72</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="R55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>71</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>30</v>
@@ -3086,36 +3053,36 @@
       <c r="D56">
         <v>4011</v>
       </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" t="s">
-        <v>16</v>
+      <c r="H56">
+        <v>30.3</v>
       </c>
       <c r="I56">
-        <v>30.3</v>
+        <v>4.5</v>
       </c>
       <c r="J56">
-        <v>4.5</v>
-      </c>
-      <c r="K56">
         <v>4796508</v>
       </c>
-      <c r="L56" t="s">
-        <v>73</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="R56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>72</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>31</v>
@@ -3123,36 +3090,36 @@
       <c r="D57">
         <v>4011</v>
       </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" t="s">
-        <v>16</v>
+      <c r="H57">
+        <v>0.53200000000000003</v>
       </c>
       <c r="I57">
-        <v>0.53200000000000003</v>
+        <v>60.1</v>
       </c>
       <c r="J57">
-        <v>60.1</v>
-      </c>
-      <c r="K57">
         <v>884346</v>
       </c>
-      <c r="L57" t="s">
-        <v>74</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>32</v>
@@ -3160,36 +3127,36 @@
       <c r="D58">
         <v>4011</v>
       </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" t="s">
-        <v>16</v>
+      <c r="H58">
+        <v>1.6</v>
       </c>
       <c r="I58">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="J58">
-        <v>7.3</v>
-      </c>
-      <c r="K58">
         <v>5746575</v>
       </c>
-      <c r="L58" t="s">
-        <v>75</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>74</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -3197,36 +3164,36 @@
       <c r="D59">
         <v>4011</v>
       </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
       <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
-      <c r="H59" t="s">
-        <v>16</v>
+      <c r="H59">
+        <v>7.4</v>
       </c>
       <c r="I59">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="J59">
-        <v>5.5</v>
-      </c>
-      <c r="K59">
         <v>7229787</v>
       </c>
-      <c r="L59" t="s">
-        <v>76</v>
-      </c>
-      <c r="P59" s="3"/>
-      <c r="R59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>75</v>
+      </c>
+      <c r="O59" s="3"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>34</v>
@@ -3234,36 +3201,36 @@
       <c r="D60">
         <v>4011</v>
       </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
-      <c r="H60" t="s">
-        <v>16</v>
+      <c r="H60">
+        <v>2.4</v>
       </c>
       <c r="I60">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="J60">
-        <v>1.2</v>
-      </c>
-      <c r="K60">
         <v>5333709</v>
       </c>
-      <c r="L60" t="s">
-        <v>77</v>
-      </c>
-      <c r="P60" s="3"/>
-      <c r="R60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>76</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>35</v>
@@ -3271,36 +3238,36 @@
       <c r="D61">
         <v>4011</v>
       </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61" t="s">
-        <v>16</v>
+      <c r="H61">
+        <v>2.76</v>
       </c>
       <c r="I61">
-        <v>2.76</v>
+        <v>18.8</v>
       </c>
       <c r="J61">
-        <v>18.8</v>
-      </c>
-      <c r="K61">
         <v>44030131</v>
       </c>
-      <c r="L61" t="s">
-        <v>78</v>
-      </c>
-      <c r="P61" s="3"/>
-      <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>77</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>36</v>
@@ -3308,36 +3275,36 @@
       <c r="D62">
         <v>4011</v>
       </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="H62" t="s">
-        <v>16</v>
+      <c r="H62">
+        <v>3.61</v>
       </c>
       <c r="I62">
-        <v>3.61</v>
+        <v>12.3</v>
       </c>
       <c r="J62">
-        <v>12.3</v>
-      </c>
-      <c r="K62">
         <v>43674917</v>
       </c>
-      <c r="L62" t="s">
-        <v>79</v>
-      </c>
-      <c r="P62" s="3"/>
-      <c r="R62" s="6"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>39</v>
@@ -3345,29 +3312,29 @@
       <c r="D63">
         <v>4011</v>
       </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="H63" t="s">
-        <v>16</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J63">
-        <v>6.9</v>
-      </c>
-      <c r="K63">
         <v>1991285</v>
       </c>
-      <c r="L63" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63" s="3"/>
-      <c r="R63" s="6"/>
+      <c r="K63" t="s">
+        <v>79</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="Q63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.11.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C170C-73F0-7946-A661-580B30787D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932CF7BF-806D-874B-8D9F-2385CBD2977F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="79">
   <si>
     <t>libraryDate</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Brent_large_3d-25_GTAC_25_SIC_Index2_09_CGTCGCT_TGTGAGGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>08.29.19</t>
   </si>
   <si>
     <t>Brent_small_3d-26_GTAC_26_SIC_Index2_09_TCAACTG_TGTGAGGT_S27_R1_001.fastq.gz</t>
@@ -664,7 +661,7 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1959,7 +1956,7 @@
         <v>5031505</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -2008,7 +2005,7 @@
         <v>7231560</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -2057,7 +2054,7 @@
         <v>10213502</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -2095,7 +2092,7 @@
         <v>6822014</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -2133,7 +2130,7 @@
         <v>4341048</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2141,7 +2138,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -2171,7 +2168,7 @@
         <v>6680365</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -2209,7 +2206,7 @@
         <v>6844663</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -2247,7 +2244,7 @@
         <v>3994543</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -2285,7 +2282,7 @@
         <v>2257508</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -2323,7 +2320,7 @@
         <v>18162855</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -2361,7 +2358,7 @@
         <v>9140479</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -2399,7 +2396,7 @@
         <v>36598293</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -2437,7 +2434,7 @@
         <v>5237450</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -2475,7 +2472,7 @@
         <v>34123859</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -2513,7 +2510,7 @@
         <v>3595819</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -2521,7 +2518,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -2551,7 +2548,7 @@
         <v>3874045</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -2559,7 +2556,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -2589,7 +2586,7 @@
         <v>7222032</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -2627,7 +2624,7 @@
         <v>4500388</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2665,14 +2662,14 @@
         <v>6121691</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O45" s="3"/>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -2702,14 +2699,14 @@
         <v>2717379</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O46" s="3"/>
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2739,14 +2736,14 @@
         <v>3559294</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O47" s="3"/>
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2776,14 +2773,14 @@
         <v>11938927</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O48" s="3"/>
       <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2813,14 +2810,14 @@
         <v>40713836</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O49" s="3"/>
       <c r="Q49" s="6"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2850,14 +2847,14 @@
         <v>46339288</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O50" s="3"/>
       <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2887,14 +2884,14 @@
         <v>2799214</v>
       </c>
       <c r="K51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O51" s="3"/>
       <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2924,14 +2921,14 @@
         <v>4112294</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O52" s="3"/>
       <c r="Q52" s="6"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2961,14 +2958,14 @@
         <v>5844319</v>
       </c>
       <c r="K53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O53" s="3"/>
       <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -2998,14 +2995,14 @@
         <v>6132196</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O54" s="3"/>
       <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -3035,14 +3032,14 @@
         <v>4521601</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O55" s="3"/>
       <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -3072,14 +3069,14 @@
         <v>4796508</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O56" s="3"/>
       <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -3109,14 +3106,14 @@
         <v>884346</v>
       </c>
       <c r="K57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O57" s="3"/>
       <c r="Q57" s="6"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -3146,14 +3143,14 @@
         <v>5746575</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O58" s="3"/>
       <c r="Q58" s="6"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -3183,14 +3180,14 @@
         <v>7229787</v>
       </c>
       <c r="K59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O59" s="3"/>
       <c r="Q59" s="6"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
@@ -3220,14 +3217,14 @@
         <v>5333709</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O60" s="3"/>
       <c r="Q60" s="6"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -3257,14 +3254,14 @@
         <v>44030131</v>
       </c>
       <c r="K61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O61" s="3"/>
       <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
@@ -3294,14 +3291,14 @@
         <v>43674917</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O62" s="3"/>
       <c r="Q62" s="6"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -3331,7 +3328,7 @@
         <v>1991285</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O63" s="3"/>
       <c r="Q63" s="6"/>
